--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="0" windowWidth="7995" windowHeight="1380" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="0" windowWidth="7995" windowHeight="1380"/>
   </bookViews>
   <sheets>
     <sheet name="admin_columns" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="113">
   <si>
     <t>SeqNo</t>
   </si>
@@ -256,47 +256,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者XXXX備註說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門單位XXXXHHHH EE備註說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能XXXX LLLL PP備註說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonCluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色XXXXHHHH EE備註說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>tbDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>角色ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者XXXX備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門單位XXXXHHHH EE備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能XXXX LLLL PP備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonCluster</t>
+    <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,7 +385,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orderBy</t>
+    <t>isExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetValueHttpGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,84 +409,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色XXXXHHHH EE備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exampleInSetValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Func</t>
-  </si>
-  <si>
-    <t>tbDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>代碼設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'ALL':全部, '1':啟用, '0':停用</t>
   </si>
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系統代碼</t>
+    <t>SeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +484,12 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -455,10 +524,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -773,28 +863,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="0.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -823,19 +916,22 @@
         <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -857,8 +953,14 @@
       <c r="I2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -877,8 +979,14 @@
       <c r="F3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -898,10 +1006,10 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -918,13 +1026,19 @@
         <v>44</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -944,7 +1058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -964,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -983,11 +1097,11 @@
       <c r="F8">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1009,11 +1123,11 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1035,11 +1149,11 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1093,7 +1207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1113,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1133,7 +1247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1235,8 +1349,14 @@
       <c r="F20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1255,8 +1375,14 @@
       <c r="F21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1296,7 +1422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1306,14 +1432,14 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
-        <v>39</v>
+      <c r="D24" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1373,7 +1499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1433,12 +1559,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -1453,18 +1579,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
@@ -1472,19 +1598,25 @@
       <c r="F32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
@@ -1492,13 +1624,19 @@
       <c r="F33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1513,12 +1651,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1533,12 +1671,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1553,12 +1691,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1573,7 +1711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +1731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1604,7 +1742,7 @@
         <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
@@ -1612,8 +1750,14 @@
       <c r="F39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1624,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>44</v>
@@ -1632,8 +1776,14 @@
       <c r="F40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1653,7 +1803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1713,84 +1863,105 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L45" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48">
-        <v>45</v>
+      <c r="L48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,19 +1969,16 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,19 +1986,19 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,18 +2006,58 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
         <v>16</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>42</v>
       </c>
-      <c r="E51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51">
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
         <v>45</v>
       </c>
     </row>
@@ -1864,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1879,95 +2087,95 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1976,7 +2184,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="0" windowWidth="7995" windowHeight="1380" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="0" windowWidth="7995" windowHeight="1380"/>
   </bookViews>
   <sheets>
     <sheet name="admin_columns" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="168">
   <si>
     <t>SeqNo</t>
   </si>
@@ -40,9 +40,6 @@
     <t>AgentId</t>
   </si>
   <si>
-    <t>DeptId</t>
-  </si>
-  <si>
     <t>ExtPhone</t>
   </si>
   <si>
@@ -74,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ColumnName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ColumnDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流水號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否可用?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建立時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能路徑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能圖示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,18 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用者XXXX備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門單位XXXXHHHH EE備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能XXXX LLLL PP備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色XXXXHHHH EE備註說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,9 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'ALL':全部, '1':啟用, '0':停用</t>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,14 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,14 +406,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,23 +438,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930744573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel@esun.bank.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職務權限設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/auth/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm-icon-home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpGetSetValue</t>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,59 +589,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>daniel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0930744573</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daniel@esun.bank.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpInsert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職務權限設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/auth/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm-icon-home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,106 +625,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分機號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼檔代碼</t>
+  </si>
+  <si>
+    <t>系統代碼檔名稱</t>
+  </si>
+  <si>
+    <t>功能路由</t>
   </si>
   <si>
     <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tester2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦電話</t>
+    <t>是否啟用?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,12 +706,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -769,9 +778,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -791,15 +800,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -807,16 +816,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -830,6 +833,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1137,7 +1147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1145,1823 +1155,1920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="16.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>101</v>
+        <v>155</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L2" s="16">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="M2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="3">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3">
         <v>50</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>124</v>
+      <c r="O6" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3">
         <v>10</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>129</v>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>130</v>
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="26">
+        <v>1</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1</v>
+      </c>
+      <c r="O11" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="26">
+        <v>1</v>
+      </c>
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="3">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3">
         <v>7</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>102</v>
+      <c r="P13" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4">
         <v>7</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>102</v>
+      <c r="P16" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="7">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="7">
         <v>7</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="16">
         <v>1</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>112</v>
+      <c r="M18" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="3">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L19" s="16">
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3">
+        <v>50</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3">
-        <v>20</v>
+        <v>164</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="26">
+        <v>1</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1</v>
+      </c>
+      <c r="O23" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="4">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="4">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="4">
+        <v>20</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4">
+        <v>32</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="4">
         <v>7</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>100</v>
+      <c r="P26" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="7">
+        <v>94</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7">
         <v>7</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="20">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1</v>
+      </c>
+      <c r="M28" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="3">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L29" s="16">
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="3">
-        <v>100</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="N30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="26">
+        <v>1</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="4">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
+        <v>20</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="4">
         <v>7</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="P34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7">
         <v>7</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="20">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P35" s="6"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="3">
-        <v>20</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="16">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="K36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="19">
+        <v>1</v>
+      </c>
+      <c r="M36" s="26">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="3">
-        <v>100</v>
+        <v>156</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="3">
+        <v>20</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>137</v>
+        <v>74</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="4">
-        <v>20</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="28">
+        <v>50</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="4">
-        <v>20</v>
-      </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M39" s="26">
+        <v>1</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1</v>
+      </c>
+      <c r="O39" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
+        <v>20</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="4">
+        <v>20</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="4">
         <v>7</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+      <c r="P42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="7">
         <v>7</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L42" s="20">
-        <v>1</v>
-      </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="5">
-        <v>20</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="5">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L44" s="19">
+        <v>1</v>
+      </c>
+      <c r="M44" s="26">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="5">
-        <v>100</v>
-      </c>
-      <c r="G45" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="5">
+        <v>20</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>100</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="5">
+        <v>20</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="20">
-        <v>1</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P46" s="6">
-        <v>1</v>
+      <c r="K46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="5">
-        <v>20</v>
-      </c>
-      <c r="G47" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="20"/>
+      <c r="K47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="M47" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N47" s="6"/>
-      <c r="O47" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="5">
-        <v>20</v>
-      </c>
-      <c r="G48" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="5"/>
+      <c r="L48" s="19">
+        <v>1</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
+      <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="5">
-        <v>7</v>
-      </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5">
+        <v>20</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="L49" s="19"/>
+      <c r="M49" s="5"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="5">
+        <v>20</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="9">
+      <c r="E51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="5">
         <v>7</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="5"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="G52" s="9">
+        <v>7</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+    </row>
+    <row r="53" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="5">
-        <v>20</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P52" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="J53" s="21"/>
+      <c r="K53" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M53" s="26">
+        <v>1</v>
+      </c>
+      <c r="O53" s="22"/>
       <c r="P53" s="2" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="5">
+        <v>20</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P55" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="5">
+        <v>120</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F58" s="5">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M58" s="26">
+        <v>1</v>
+      </c>
+      <c r="N58" s="26">
+        <v>1</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
+        <v>20</v>
+      </c>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="5">
+        <v>20</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="9">
+    <row r="62" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="9">
         <v>7</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="P60" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="18"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P10" r:id="rId1"/>
+    <hyperlink ref="N10" r:id="rId1"/>
+    <hyperlink ref="M10" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2969,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2982,76 +3089,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="181">
   <si>
     <t>SeqNo</t>
   </si>
@@ -275,406 +275,458 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>tbDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異動者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異動時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryWhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930744573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel@esun.bank.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職務權限設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/auth/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm-icon-home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼檔代碼</t>
+  </si>
+  <si>
+    <t>系統代碼檔名稱</t>
+  </si>
+  <si>
+    <t>功能路由</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Func</t>
-  </si>
-  <si>
-    <t>tbDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經辦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼分類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderBy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>異動者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>異動時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryWhere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daniel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0930744573</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daniel@esun.bank.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpInsert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職務權限設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/auth/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm-icon-home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分機號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼檔代碼</t>
-  </si>
-  <si>
-    <t>系統代碼檔名稱</t>
-  </si>
-  <si>
-    <t>功能路由</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用?</t>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computerIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEnable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,7 +1199,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1157,9 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1246,10 @@
         <v>19</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>13</v>
@@ -1215,22 +1267,22 @@
         <v>56</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1256,13 +1308,13 @@
         <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="16">
         <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O2" s="16"/>
     </row>
@@ -1280,28 +1332,28 @@
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G3" s="3">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1312,7 +1364,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>24</v>
@@ -1327,13 +1379,13 @@
         <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1344,7 +1396,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>25</v>
@@ -1359,19 +1411,19 @@
         <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1394,13 +1446,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1411,7 +1463,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -1423,16 +1475,16 @@
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1455,16 +1507,16 @@
         <v>10</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1490,16 +1542,16 @@
         <v>12</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1525,13 +1577,13 @@
         <v>12</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1571,10 +1623,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M12" s="26">
         <v>1</v>
@@ -1606,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1640,7 +1692,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>36</v>
@@ -1649,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1660,7 +1712,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>32</v>
@@ -1672,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>38</v>
@@ -1746,28 +1798,28 @@
         <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G19" s="3">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="16">
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1790,22 +1842,22 @@
         <v>50</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1819,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>35</v>
@@ -1828,13 +1880,13 @@
         <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1857,13 +1909,13 @@
         <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1877,10 +1929,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M23" s="26">
         <v>1</v>
@@ -1923,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>36</v>
@@ -1932,7 +1984,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1943,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>32</v>
@@ -1955,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1969,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>38</v>
@@ -2029,28 +2081,28 @@
         <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G29" s="3">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="16">
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2073,22 +2125,22 @@
         <v>50</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2102,10 +2154,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M31" s="26">
         <v>1</v>
@@ -2148,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>36</v>
@@ -2157,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -2168,7 +2220,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>32</v>
@@ -2180,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2194,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>38</v>
@@ -2204,7 +2256,7 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2254,31 +2306,31 @@
         <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37" s="16">
         <v>1</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -2301,22 +2353,22 @@
         <v>50</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2330,10 +2382,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M39" s="26">
         <v>1</v>
@@ -2378,7 +2430,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>36</v>
@@ -2397,7 +2449,7 @@
         <v>49</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>32</v>
@@ -2411,7 +2463,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
       <c r="P42" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>38</v>
@@ -2435,7 +2487,7 @@
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -2446,13 +2498,13 @@
         <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>22</v>
@@ -2467,7 +2519,7 @@
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L44" s="19">
         <v>1</v>
@@ -2483,14 +2535,14 @@
         <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>35</v>
@@ -2502,22 +2554,22 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L45" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="O45" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2525,17 +2577,17 @@
         <v>21</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
@@ -2544,22 +2596,22 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L46" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="O46" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -2567,41 +2619,41 @@
         <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L47" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="O47" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2609,17 +2661,17 @@
         <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2644,11 +2696,11 @@
         <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>33</v>
@@ -2667,7 +2719,7 @@
       <c r="M49" s="5"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2675,14 +2727,14 @@
         <v>21</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>36</v>
@@ -2695,10 +2747,10 @@
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -2708,11 +2760,11 @@
         <v>21</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>32</v>
@@ -2737,14 +2789,14 @@
         <v>21</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>38</v>
@@ -2757,7 +2809,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
       <c r="L52" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="8"/>
@@ -2769,13 +2821,13 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>22</v>
@@ -2790,10 +2842,10 @@
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M53" s="26">
         <v>1</v>
@@ -2808,13 +2860,13 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>35</v>
@@ -2823,22 +2875,22 @@
         <v>20</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2846,31 +2898,31 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2878,37 +2930,37 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P56" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2916,28 +2968,28 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>20</v>
@@ -2948,16 +3000,16 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M58" s="26">
         <v>1</v>
@@ -2966,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="27" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -2974,10 +3026,10 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>33</v>
@@ -2995,13 +3047,13 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>36</v>
@@ -3010,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3018,10 +3070,10 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>32</v>
@@ -3038,13 +3090,13 @@
         <v>21</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>38</v>
@@ -3074,76 +3126,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="admin_columns" sheetId="1" r:id="rId1"/>
     <sheet name="SP_config" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="182">
   <si>
     <t>SeqNo</t>
   </si>
@@ -478,15 +479,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分機號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電腦名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電腦IP</t>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼檔代碼</t>
+  </si>
+  <si>
+    <t>系統代碼檔名稱</t>
+  </si>
+  <si>
+    <t>功能路由</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computerIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 位址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,239 +719,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼檔代碼</t>
-  </si>
-  <si>
-    <t>系統代碼檔名稱</t>
-  </si>
-  <si>
-    <t>功能路由</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>computerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>computerIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEnable</t>
+    <t>seqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq No.</t>
+  </si>
+  <si>
+    <t>filterItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話分機</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -886,9 +890,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1199,7 +1200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1207,11 +1208,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1223,19 +1224,17 @@
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="8" max="10" width="7.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="17.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.42578125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -1246,10 +1245,10 @@
         <v>19</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>13</v>
@@ -1270,7 +1269,7 @@
         <v>74</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>93</v>
@@ -1284,8 +1283,11 @@
       <c r="P1" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1318,7 +1320,7 @@
       </c>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G3" s="3">
         <v>20</v>
@@ -1347,7 +1349,7 @@
         <v>103</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>103</v>
@@ -1356,7 +1358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1446,16 +1448,16 @@
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -1475,19 +1477,19 @@
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>107</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1623,10 +1625,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M12" s="26">
         <v>1</v>
@@ -1638,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1701,10 +1703,10 @@
         <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G19" s="3">
         <v>20</v>
@@ -1810,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>92</v>
@@ -1871,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>35</v>
@@ -1929,10 +1931,10 @@
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M23" s="26">
         <v>1</v>
@@ -1984,7 +1986,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2081,7 +2083,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G29" s="3">
         <v>20</v>
@@ -2093,13 +2095,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>83</v>
@@ -2154,10 +2156,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M31" s="26">
         <v>1</v>
@@ -2209,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -2306,10 +2308,10 @@
         <v>50</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
@@ -2321,13 +2323,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>83</v>
@@ -2349,7 +2351,7 @@
       <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="27">
         <v>50</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -2382,10 +2384,10 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M39" s="26">
         <v>1</v>
@@ -2539,7 +2541,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>82</v>
@@ -2581,13 +2583,13 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
@@ -2623,16 +2625,16 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2665,13 +2667,13 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2691,7 +2693,7 @@
       </c>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2702,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>33</v>
@@ -2722,7 +2724,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -2731,7 +2733,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>89</v>
@@ -2750,12 +2752,12 @@
         <v>95</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>32</v>
@@ -2784,7 +2786,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
@@ -2793,7 +2795,7 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>90</v>
@@ -2816,7 +2818,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>21</v>
       </c>
@@ -2827,10 +2829,10 @@
         <v>20</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>34</v>
@@ -2842,10 +2844,10 @@
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M53" s="26">
         <v>1</v>
@@ -2855,7 +2857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>117</v>
@@ -2871,29 +2873,26 @@
       <c r="F54" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="5">
-        <v>20</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L54" s="16" t="s">
-        <v>128</v>
+      <c r="G54" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N54" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -2901,31 +2900,37 @@
         <v>116</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="K55" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="L55" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="M55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>21</v>
       </c>
@@ -2933,37 +2938,40 @@
         <v>116</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>121</v>
+        <v>35</v>
+      </c>
+      <c r="G56" s="5">
+        <v>20</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="N56" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>21</v>
       </c>
@@ -2971,57 +2979,52 @@
         <v>116</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>158</v>
+      <c r="D58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M58" s="26">
-        <v>1</v>
-      </c>
-      <c r="N58" s="26">
-        <v>1</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G58" s="5">
+        <v>20</v>
+      </c>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>21</v>
       </c>
@@ -3029,10 +3032,10 @@
         <v>116</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>36</v>
@@ -3040,9 +3043,11 @@
       <c r="G59" s="5">
         <v>20</v>
       </c>
-      <c r="P59" s="6"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M59" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
@@ -3050,65 +3055,42 @@
         <v>116</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G60" s="5">
-        <v>20</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="D61" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" s="9">
-        <v>7</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="18"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="6" t="s">
+      <c r="K61" s="8"/>
+      <c r="L61" s="18"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3151,10 +3133,10 @@
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,10 +3147,10 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,10 +3161,10 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3193,10 +3175,10 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3207,10 +3189,10 @@
         <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3221,25 +3203,47 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F18:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="186">
   <si>
     <t>SeqNo</t>
   </si>
@@ -671,10 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>computerIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +727,26 @@
   </si>
   <si>
     <t>電話分機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computerIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q-input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +829,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -836,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -893,6 +915,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1208,11 +1231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1224,17 +1247,17 @@
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="7.5703125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="7.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="17.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8" style="16" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="8" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -1283,11 +1306,14 @@
       <c r="P1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1320,7 +1346,7 @@
       </c>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1384,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1454,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1489,7 +1515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1588,7 +1614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1663,7 +1689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1683,7 +1709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1706,7 +1732,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2541,7 +2567,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>82</v>
@@ -2583,7 +2609,7 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>149</v>
@@ -2625,7 +2651,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>150</v>
@@ -2667,7 +2693,7 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>154</v>
@@ -2693,7 +2719,7 @@
       </c>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -2702,7 +2728,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>33</v>
@@ -2724,7 +2750,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2759,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>89</v>
@@ -2757,7 +2783,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2792,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>32</v>
@@ -2786,7 +2812,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
@@ -2795,7 +2821,7 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>90</v>
@@ -2818,7 +2844,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>21</v>
       </c>
@@ -2829,10 +2855,10 @@
         <v>20</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>34</v>
@@ -2857,7 +2883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -2891,8 +2917,11 @@
       <c r="Q54" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -2900,10 +2929,10 @@
         <v>116</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>145</v>
@@ -2929,8 +2958,11 @@
       <c r="P55" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +2973,7 @@
         <v>164</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>35</v>
@@ -2970,8 +3002,11 @@
       <c r="Q56" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>21</v>
       </c>
@@ -2979,10 +3014,10 @@
         <v>116</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>35</v>
@@ -3002,8 +3037,11 @@
       <c r="P57" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3011,20 +3049,32 @@
         <v>116</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>33</v>
+        <v>174</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="5">
-        <v>20</v>
-      </c>
-      <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="19">
+        <v>1</v>
+      </c>
+      <c r="M58" s="6">
+        <v>1</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1</v>
+      </c>
+      <c r="O58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>21</v>
       </c>
@@ -3032,10 +3082,10 @@
         <v>116</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>36</v>
@@ -3043,11 +3093,9 @@
       <c r="G59" s="5">
         <v>20</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
@@ -3055,42 +3103,65 @@
         <v>116</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="5">
+        <v>20</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="E62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G62" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="9">
-        <v>7</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="18"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="6" t="s">
+      <c r="K62" s="8"/>
+      <c r="L62" s="18"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3103,6 +3174,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="R54:R56" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -30,723 +30,719 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="184">
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>ExtPhone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>IsEnable</t>
+  </si>
+  <si>
+    <t>CreateDT</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoGen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agdSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTITY(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能圖示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuncId</t>
+  </si>
+  <si>
+    <t>FuncName</t>
+  </si>
+  <si>
+    <t>FuncPath</t>
+  </si>
+  <si>
+    <t>FuncIcon</t>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonCluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>tbDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異動者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>異動時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryWhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930744573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel@esun.bank.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職務權限設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/auth/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm-icon-home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼檔代碼</t>
+  </si>
+  <si>
+    <t>系統代碼檔名稱</t>
+  </si>
+  <si>
+    <t>功能路由</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 位址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq No.</t>
+  </si>
+  <si>
+    <t>filterItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話分機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q-input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>SeqNo</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>AgentId</t>
-  </si>
-  <si>
-    <t>ExtPhone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>IsAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IsEnable</t>
-  </si>
-  <si>
-    <t>CreateDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Creator</t>
-  </si>
-  <si>
-    <t>UpdateDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Updator</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxLen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoGen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agdSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經辦代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分機號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDENTITY(1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能圖示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuncId</t>
-  </si>
-  <si>
-    <t>FuncName</t>
-  </si>
-  <si>
-    <t>FuncPath</t>
-  </si>
-  <si>
-    <t>FuncIcon</t>
-  </si>
-  <si>
-    <t>Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonCluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Func</t>
-  </si>
-  <si>
-    <t>tbDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經辦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼分類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderBy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>異動者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>異動時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryWhere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daniel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0930744573</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daniel@esun.bank.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpInsert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職務權限設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/auth/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm-icon-home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼檔代碼</t>
-  </si>
-  <si>
-    <t>系統代碼檔名稱</t>
-  </si>
-  <si>
-    <t>功能路由</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>computerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateDT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 位址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq No.</t>
-  </si>
-  <si>
-    <t>filterItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話分機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>computerIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q-input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1233,9 +1229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1247,11 +1243,11 @@
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8" style="16" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="8" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="3"/>
@@ -1259,376 +1255,376 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L2" s="16">
         <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G3" s="3">
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3">
         <v>50</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3">
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3">
         <v>10</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3">
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3">
         <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M11" s="26">
         <v>1</v>
@@ -1642,19 +1638,19 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M12" s="26">
         <v>1</v>
@@ -1668,42 +1664,42 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3">
         <v>7</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -1711,65 +1707,65 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" s="4">
         <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>88</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" s="4">
         <v>7</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7">
         <v>7</v>
@@ -1782,28 +1778,28 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L18" s="16">
         <v>1</v>
@@ -1814,153 +1810,153 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G19" s="3">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L19" s="16">
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" s="3">
         <v>50</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22" s="3">
         <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M23" s="26">
         <v>1</v>
@@ -1974,19 +1970,19 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" s="4">
         <v>20</v>
@@ -1994,65 +1990,65 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" s="4">
         <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G26" s="4">
         <v>7</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7">
         <v>7</v>
@@ -2065,28 +2061,28 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L28" s="19">
         <v>1</v>
@@ -2097,95 +2093,95 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G29" s="3">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L29" s="16">
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" s="3">
         <v>50</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M31" s="26">
         <v>1</v>
@@ -2199,121 +2195,121 @@
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G32" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4">
         <v>20</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G34" s="4">
         <v>7</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7">
         <v>7</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L36" s="19">
         <v>1</v>
@@ -2323,97 +2319,97 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L37" s="16">
         <v>1</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G38" s="27">
         <v>50</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M39" s="26">
         <v>1</v>
@@ -2425,21 +2421,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G40" s="4">
         <v>20</v>
@@ -2447,21 +2443,21 @@
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" s="4">
         <v>20</v>
@@ -2469,21 +2465,21 @@
       <c r="M41" s="5"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G42" s="4">
         <v>7</v>
@@ -2491,63 +2487,63 @@
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
       <c r="P42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G43" s="7">
         <v>7</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L44" s="19">
         <v>1</v>
@@ -2558,22 +2554,22 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G45" s="5">
         <v>20</v>
@@ -2582,40 +2578,46 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
@@ -2624,82 +2626,91 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2718,23 +2729,26 @@
         <v>1</v>
       </c>
       <c r="P48" s="6"/>
+      <c r="R48" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G49" s="5">
         <v>20</v>
@@ -2747,25 +2761,25 @@
       <c r="M49" s="5"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G50" s="5">
         <v>20</v>
@@ -2775,30 +2789,30 @@
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G51" s="5">
         <v>7</v>
@@ -2814,20 +2828,20 @@
     </row>
     <row r="52" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G52" s="9">
         <v>7</v>
@@ -2837,7 +2851,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
       <c r="L52" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="8"/>
@@ -2846,216 +2860,219 @@
     </row>
     <row r="53" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M53" s="26">
         <v>1</v>
       </c>
       <c r="O53" s="22"/>
       <c r="P53" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G56" s="5">
         <v>20</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3076,19 +3093,19 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G59" s="5">
         <v>20</v>
@@ -3097,42 +3114,45 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G60" s="5">
         <v>20</v>
       </c>
+      <c r="H60" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="M60" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G61" s="5">
         <v>7</v>
@@ -3140,29 +3160,32 @@
     </row>
     <row r="62" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G62" s="9">
         <v>7</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="18"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3198,103 +3221,103 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="183">
   <si>
     <t>UserId</t>
   </si>
@@ -467,6 +467,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,18 +490,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼檔代碼</t>
+  </si>
+  <si>
+    <t>系統代碼檔名稱</t>
+  </si>
+  <si>
+    <t>功能路由</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 位址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq No.</t>
+  </si>
+  <si>
+    <t>filterItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話分機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q-input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,251 +682,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼檔代碼</t>
-  </si>
-  <si>
-    <t>系統代碼檔名稱</t>
-  </si>
-  <si>
-    <t>功能路由</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP 位址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq No.</t>
-  </si>
-  <si>
-    <t>filterItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話分機</t>
+    <t>更新者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q-input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Updator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1227,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1264,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>9</v>
@@ -1288,7 +1284,7 @@
         <v>70</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>87</v>
@@ -1303,10 +1299,10 @@
         <v>79</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1320,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -1356,7 +1352,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" s="3">
         <v>20</v>
@@ -1371,7 +1367,7 @@
         <v>97</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>97</v>
@@ -1470,13 +1466,13 @@
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1487,7 +1483,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -1499,13 +1495,13 @@
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>78</v>
@@ -1647,10 +1643,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M12" s="26">
         <v>1</v>
@@ -1693,7 +1689,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1713,7 +1709,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>83</v>
@@ -1725,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1736,7 +1732,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
@@ -1759,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
@@ -1787,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -1822,7 +1818,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G19" s="3">
         <v>20</v>
@@ -1834,13 +1830,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>86</v>
@@ -1895,7 +1891,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>31</v>
@@ -1953,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M23" s="26">
         <v>1</v>
@@ -1976,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -1996,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>83</v>
@@ -2008,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2019,7 +2015,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>28</v>
@@ -2042,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>84</v>
@@ -2070,7 +2066,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -2105,7 +2101,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3">
         <v>20</v>
@@ -2117,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>78</v>
@@ -2178,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M31" s="26">
         <v>1</v>
@@ -2201,7 +2197,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
@@ -2221,7 +2217,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>83</v>
@@ -2233,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2244,7 +2240,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>28</v>
@@ -2267,7 +2263,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>84</v>
@@ -2297,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -2330,10 +2326,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
@@ -2345,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>78</v>
@@ -2406,10 +2402,10 @@
         <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M39" s="26">
         <v>1</v>
@@ -2429,7 +2425,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>29</v>
@@ -2451,7 +2447,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>83</v>
@@ -2473,7 +2469,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>28</v>
@@ -2498,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>84</v>
@@ -2528,7 +2524,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
@@ -2563,7 +2559,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>77</v>
@@ -2599,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -2611,13 +2607,13 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
@@ -2644,7 +2640,7 @@
         <v>78</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -2656,16 +2652,16 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2692,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2704,13 +2700,13 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2730,7 +2726,7 @@
       </c>
       <c r="P48" s="6"/>
       <c r="R48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -2742,7 +2738,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
@@ -2773,7 +2769,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>83</v>
@@ -2792,7 +2788,7 @@
         <v>89</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -2806,7 +2802,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
@@ -2835,7 +2831,7 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>84</v>
@@ -2869,10 +2865,10 @@
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>30</v>
@@ -2884,10 +2880,10 @@
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="M53" s="26">
         <v>1</v>
@@ -2905,7 +2901,7 @@
         <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>111</v>
@@ -2914,25 +2910,25 @@
         <v>31</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2943,37 +2939,37 @@
         <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -2984,10 +2980,10 @@
         <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>31</v>
@@ -2996,28 +2992,28 @@
         <v>20</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3028,10 +3024,10 @@
         <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>31</v>
@@ -3040,22 +3036,22 @@
         <v>112</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3066,10 +3062,10 @@
         <v>110</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>33</v>
@@ -3099,7 +3095,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>29</v>
@@ -3120,10 +3116,10 @@
         <v>110</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>32</v>
@@ -3132,10 +3128,10 @@
         <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3146,7 +3142,7 @@
         <v>110</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
@@ -3166,7 +3162,7 @@
         <v>110</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>84</v>
@@ -3178,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="18"/>
@@ -3230,10 +3226,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3244,10 +3240,10 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,10 +3254,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3272,10 +3268,10 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,10 +3282,10 @@
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,24 +3296,24 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="0" windowWidth="7995" windowHeight="1380"/>
+    <workbookView xWindow="3750" yWindow="-105" windowWidth="8040" windowHeight="120"/>
   </bookViews>
   <sheets>
     <sheet name="admin_columns" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="182">
   <si>
     <t>UserId</t>
   </si>
@@ -539,10 +539,6 @@
   </si>
   <si>
     <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1215,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1226,8 +1222,8 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1239,8 @@
     <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="8" style="16" customWidth="1"/>
     <col min="13" max="13" width="8" style="3" customWidth="1"/>
-    <col min="14" max="15" width="8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="3"/>
@@ -1260,10 +1257,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>9</v>
@@ -1284,7 +1281,7 @@
         <v>70</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>87</v>
@@ -1299,10 +1296,10 @@
         <v>79</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1316,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -1352,7 +1349,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="3">
         <v>20</v>
@@ -1643,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M12" s="26">
         <v>1</v>
@@ -1689,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1709,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>83</v>
@@ -1721,7 +1718,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1732,7 +1729,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
@@ -1755,7 +1752,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
@@ -1783,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -1818,7 +1815,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="3">
         <v>20</v>
@@ -1891,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>31</v>
@@ -1949,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M23" s="26">
         <v>1</v>
@@ -1972,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -1992,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>83</v>
@@ -2004,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2015,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>28</v>
@@ -2038,7 +2035,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>84</v>
@@ -2066,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -2101,7 +2098,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="3">
         <v>20</v>
@@ -2174,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M31" s="26">
         <v>1</v>
@@ -2197,7 +2194,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
@@ -2217,7 +2214,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>83</v>
@@ -2229,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2240,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>28</v>
@@ -2263,7 +2260,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>84</v>
@@ -2293,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -2326,10 +2323,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
@@ -2402,10 +2399,10 @@
         <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M39" s="26">
         <v>1</v>
@@ -2425,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>29</v>
@@ -2447,7 +2444,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>83</v>
@@ -2469,7 +2466,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>28</v>
@@ -2494,7 +2491,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>84</v>
@@ -2524,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
@@ -2559,7 +2556,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>77</v>
@@ -2607,13 +2604,13 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
@@ -2652,16 +2649,16 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2688,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2700,13 +2697,13 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2726,7 +2723,7 @@
       </c>
       <c r="P48" s="6"/>
       <c r="R48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -2738,7 +2735,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
@@ -2769,7 +2766,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>83</v>
@@ -2788,7 +2785,7 @@
         <v>89</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -2802,7 +2799,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
@@ -2831,7 +2828,7 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>84</v>
@@ -2865,10 +2862,10 @@
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>30</v>
@@ -2880,7 +2877,7 @@
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L53" s="23" t="s">
         <v>113</v>
@@ -2901,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>111</v>
@@ -2910,7 +2907,7 @@
         <v>31</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>125</v>
@@ -2928,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2939,16 +2936,16 @@
         <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>126</v>
@@ -2969,7 +2966,7 @@
         <v>118</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -2980,10 +2977,10 @@
         <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>31</v>
@@ -3013,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3024,10 +3021,10 @@
         <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>31</v>
@@ -3036,7 +3033,7 @@
         <v>112</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>127</v>
@@ -3051,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3062,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>33</v>
@@ -3095,7 +3092,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>29</v>
@@ -3116,10 +3113,10 @@
         <v>110</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>32</v>
@@ -3128,10 +3125,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3142,7 +3136,7 @@
         <v>110</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
@@ -3162,7 +3156,7 @@
         <v>110</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>84</v>
@@ -3174,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="18"/>
@@ -3226,10 +3220,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,10 +3234,10 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,10 +3248,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,10 +3262,10 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,10 +3276,10 @@
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3296,10 +3290,10 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3310,10 +3304,10 @@
         <v>120</v>
       </c>
       <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
         <v>151</v>
-      </c>
-      <c r="E7" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -635,10 +635,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seq No.</t>
   </si>
   <si>
@@ -735,6 +731,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,7 +1223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1296,10 +1296,10 @@
         <v>79</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -1686,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1706,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>83</v>
@@ -1729,7 +1729,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
@@ -1752,7 +1752,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
@@ -1780,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -1969,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -1989,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>83</v>
@@ -2012,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>28</v>
@@ -2035,7 +2035,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>84</v>
@@ -2063,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -2194,7 +2194,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
@@ -2214,7 +2214,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>83</v>
@@ -2237,7 +2237,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>28</v>
@@ -2260,7 +2260,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>84</v>
@@ -2290,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -2422,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>29</v>
@@ -2444,7 +2444,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>83</v>
@@ -2466,7 +2466,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>28</v>
@@ -2491,7 +2491,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>84</v>
@@ -2521,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>77</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>139</v>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>140</v>
@@ -2685,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>144</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="P48" s="6"/>
       <c r="R48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>83</v>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>84</v>
@@ -2862,10 +2862,10 @@
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>30</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L53" s="23" t="s">
         <v>113</v>
@@ -2898,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>111</v>
@@ -2907,7 +2907,7 @@
         <v>31</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>125</v>
@@ -2925,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>154</v>
@@ -2945,7 +2945,7 @@
         <v>135</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>126</v>
@@ -2966,7 +2966,7 @@
         <v>118</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -2977,10 +2977,10 @@
         <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>31</v>
@@ -3010,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3021,7 +3021,7 @@
         <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>155</v>
@@ -3033,7 +3033,7 @@
         <v>112</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>127</v>
@@ -3048,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>110</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>144</v>
@@ -3092,7 +3092,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>29</v>
@@ -3113,10 +3113,10 @@
         <v>110</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>32</v>
@@ -3125,7 +3125,7 @@
         <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>110</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
@@ -3156,7 +3156,7 @@
         <v>110</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>84</v>
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="18"/>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="-105" windowWidth="8040" windowHeight="120"/>
+    <workbookView xWindow="3750" yWindow="-105" windowWidth="8040" windowHeight="1215"/>
   </bookViews>
   <sheets>
     <sheet name="admin_columns" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
   <si>
     <t>UserId</t>
   </si>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP 位址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,10 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,6 +727,38 @@
   </si>
   <si>
     <t>SeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqDefaultVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +847,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -846,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -904,6 +934,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1211,7 +1242,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1243,10 +1274,12 @@
     <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1296,13 +1329,16 @@
         <v>79</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -1335,7 +1371,7 @@
       </c>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1409,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1508,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +1540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1536,7 +1572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1571,7 +1607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1654,8 +1690,11 @@
       <c r="O12" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1698,7 +1737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1745,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>83</v>
@@ -1721,7 +1760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1768,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
@@ -1744,7 +1783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1791,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
@@ -1769,7 +1808,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -1801,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1878,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1877,7 +1916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1945,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1935,7 +1974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1960,8 +1999,11 @@
       <c r="O23" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -1981,7 +2023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1989,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>83</v>
@@ -2004,7 +2046,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2012,7 +2054,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>28</v>
@@ -2027,7 +2069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>17</v>
       </c>
@@ -2035,7 +2077,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>84</v>
@@ -2052,7 +2094,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2105,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -2084,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -2122,7 +2164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -2160,7 +2202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -2185,8 +2227,11 @@
       <c r="O31" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -2194,7 +2239,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
@@ -2206,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -2214,7 +2259,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>83</v>
@@ -2229,7 +2274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2282,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>28</v>
@@ -2252,7 +2297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2305,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>84</v>
@@ -2279,7 +2324,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2290,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -2312,7 +2357,7 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -2349,8 +2394,11 @@
       <c r="P37" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R37" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -2387,8 +2435,11 @@
       <c r="P38" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R38" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -2413,8 +2464,14 @@
       <c r="O39" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2479,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>29</v>
@@ -2436,7 +2493,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>83</v>
@@ -2458,7 +2515,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2466,7 +2523,7 @@
         <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>28</v>
@@ -2483,7 +2540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>17</v>
       </c>
@@ -2491,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>84</v>
@@ -2510,7 +2567,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
@@ -2547,7 +2604,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +2613,7 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>77</v>
@@ -2595,7 +2652,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2661,7 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>139</v>
@@ -2640,7 +2697,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>17</v>
       </c>
@@ -2649,7 +2706,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>140</v>
@@ -2685,10 +2742,10 @@
         <v>16</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>17</v>
       </c>
@@ -2697,7 +2754,7 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>144</v>
@@ -2723,10 +2780,13 @@
       </c>
       <c r="P48" s="6"/>
       <c r="R48" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>17</v>
       </c>
@@ -2735,7 +2795,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
@@ -2757,7 +2817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
@@ -2766,7 +2826,7 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>83</v>
@@ -2790,7 +2850,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
@@ -2799,7 +2859,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
@@ -2819,7 +2879,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -2828,7 +2888,7 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>84</v>
@@ -2851,7 +2911,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>17</v>
       </c>
@@ -2862,10 +2922,10 @@
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>30</v>
@@ -2877,7 +2937,7 @@
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L53" s="23" t="s">
         <v>113</v>
@@ -2890,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>17</v>
       </c>
@@ -2898,7 +2958,7 @@
         <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>111</v>
@@ -2907,7 +2967,7 @@
         <v>31</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>125</v>
@@ -2925,10 +2985,10 @@
         <v>16</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>17</v>
       </c>
@@ -2936,16 +2996,16 @@
         <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>126</v>
@@ -2966,10 +3026,10 @@
         <v>118</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>17</v>
       </c>
@@ -2977,16 +3037,16 @@
         <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="5">
-        <v>20</v>
+      <c r="G56" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>115</v>
@@ -3010,10 +3070,10 @@
         <v>16</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>17</v>
       </c>
@@ -3021,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>31</v>
@@ -3033,7 +3093,7 @@
         <v>112</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>127</v>
@@ -3048,10 +3108,10 @@
         <v>16</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +3119,7 @@
         <v>110</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>144</v>
@@ -3083,8 +3143,11 @@
       <c r="O58" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>17</v>
       </c>
@@ -3092,7 +3155,7 @@
         <v>110</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>29</v>
@@ -3105,7 +3168,7 @@
       </c>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>17</v>
       </c>
@@ -3113,10 +3176,10 @@
         <v>110</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>32</v>
@@ -3125,10 +3188,10 @@
         <v>20</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3199,7 @@
         <v>110</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
@@ -3148,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>17</v>
       </c>
@@ -3156,7 +3219,7 @@
         <v>110</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>84</v>
@@ -3168,7 +3231,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="18"/>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -29,8 +29,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>JerryYang</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JerryYang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="189">
   <si>
     <t>UserId</t>
   </si>
@@ -162,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDENTITY(1,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orderBy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,18 +377,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>queryWhere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>httpUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getDate()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>httpInsert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>職務權限設定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +488,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColDscr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統代碼檔代碼</t>
+  </si>
+  <si>
+    <t>系統代碼檔名稱</t>
+  </si>
+  <si>
+    <t>功能路由</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq No.</t>
+  </si>
+  <si>
+    <t>電話分機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,155 +656,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColDscr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統代碼檔代碼</t>
-  </si>
-  <si>
-    <t>系統代碼檔名稱</t>
-  </si>
-  <si>
-    <t>功能路由</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否啟用?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq No.</t>
-  </si>
-  <si>
-    <t>filterItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話分機</t>
+    <t>更新者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,87 +744,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q-input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComputerIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsEnable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Updator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeqNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spQueryWhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spOrderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colDscrMemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vueFilterItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,27 +796,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電腦IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>vue-q-input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +846,19 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1242,19 +1293,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1263,23 +1314,26 @@
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="7.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8" style="16" customWidth="1"/>
-    <col min="13" max="13" width="8" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="3"/>
-    <col min="19" max="19" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="6" width="17" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1290,93 +1344,102 @@
         <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>105</v>
+      <c r="K1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="S1" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R1" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="16">
+      <c r="J2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="16">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1384,107 +1447,107 @@
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="3">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>53</v>
+      <c r="L4" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>50</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>98</v>
+      <c r="L5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -1492,60 +1555,60 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>20</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -1553,31 +1616,31 @@
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -1585,34 +1648,34 @@
       <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -1620,31 +1683,31 @@
       <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="O10" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1652,54 +1715,57 @@
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="26">
-        <v>1</v>
-      </c>
-      <c r="N11" s="26">
-        <v>1</v>
-      </c>
       <c r="O11" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P11" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="26">
-        <v>1</v>
-      </c>
-      <c r="N12" s="26">
+        <v>136</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="26">
         <v>1</v>
       </c>
       <c r="O12" s="26">
         <v>1</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P12" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -1707,1552 +1773,1587 @@
       <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>7</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>20</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q15" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="4">
-        <v>7</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
+      <c r="M16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="7">
-        <v>7</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="18"/>
-      <c r="N17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="16">
-        <v>1</v>
-      </c>
-      <c r="M18" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="3">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3">
         <v>20</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="16">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="O21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="3">
-        <v>50</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H22" s="3">
         <v>20</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="O22" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="26">
-        <v>1</v>
-      </c>
-      <c r="N23" s="26">
+        <v>136</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="26">
         <v>1</v>
       </c>
       <c r="O23" s="26">
         <v>1</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>20</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q25" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="4">
-        <v>7</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+      <c r="M26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="7">
-        <v>7</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="18"/>
-      <c r="N27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="18"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="J28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6">
+        <v>10</v>
+      </c>
+      <c r="S28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="19">
-        <v>1</v>
-      </c>
-      <c r="M28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="3">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="16">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="3">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="16">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>50</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M31" s="26">
-        <v>1</v>
-      </c>
-      <c r="N31" s="26">
+        <v>136</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="26">
         <v>1</v>
       </c>
       <c r="O31" s="26">
         <v>1</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>20</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q33" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="4">
-        <v>7</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4"/>
+      <c r="M34" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="7">
-        <v>7</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N35" s="8"/>
+      <c r="H35" s="7"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="J36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N36" s="19">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="26">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="19">
-        <v>1</v>
-      </c>
-      <c r="M36" s="26">
-        <v>1</v>
-      </c>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="3">
+        <v>20</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="16">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="3">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="16">
-        <v>1</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="27">
+      <c r="H38" s="27">
         <v>50</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>109</v>
+      <c r="M38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M39" s="26">
-        <v>1</v>
-      </c>
-      <c r="N39" s="26">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="O39" s="26">
         <v>1</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P39" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>1</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>20</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>20</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="4">
-        <v>7</v>
-      </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="6"/>
-      <c r="P42" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="4"/>
+      <c r="M42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="7">
-        <v>7</v>
-      </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N43" s="8"/>
+      <c r="H43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6" t="s">
+      <c r="I44" s="5"/>
+      <c r="J44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="19">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="Q44" s="26">
+        <v>1</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="L44" s="19">
-        <v>1</v>
-      </c>
-      <c r="M44" s="26">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>20</v>
       </c>
-      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
       <c r="M45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="5">
+        <v>131</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="5">
         <v>20</v>
       </c>
-      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>91</v>
-      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
       <c r="M47" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="19">
-        <v>1</v>
-      </c>
-      <c r="M48" s="6">
-        <v>1</v>
-      </c>
-      <c r="N48" s="6">
+      <c r="K48" s="26">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="19">
         <v>1</v>
       </c>
       <c r="O48" s="6">
         <v>1</v>
       </c>
-      <c r="P48" s="6"/>
-      <c r="R48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P48" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>1</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="U48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="5"/>
+      <c r="G49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <v>20</v>
       </c>
-      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" s="19"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>20</v>
       </c>
-      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>138</v>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G51" s="5">
-        <v>7</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="19"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="5"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="G52" s="9">
-        <v>7</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="8"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="8"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+    </row>
+    <row r="53" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="23">
+        <v>1</v>
+      </c>
+      <c r="O53" s="22"/>
+      <c r="Q53" s="2">
+        <v>1</v>
+      </c>
+      <c r="R53" s="22">
+        <v>11</v>
+      </c>
+      <c r="S53" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="M53" s="26">
-        <v>1</v>
-      </c>
-      <c r="O53" s="22"/>
-      <c r="P53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="O55" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="Q55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="P56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" s="5" t="s">
+      <c r="E57" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N56" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+      <c r="H57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="P57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="19">
-        <v>1</v>
-      </c>
-      <c r="M58" s="6">
-        <v>1</v>
-      </c>
-      <c r="N58" s="6">
-        <v>1</v>
-      </c>
+      <c r="K58" s="26">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="6">
         <v>1</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P58" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>1</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="V58" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>20</v>
       </c>
-      <c r="P59" s="6"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>20</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="9">
-        <v>7</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="18"/>
-      <c r="N62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="18"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="P62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N10" r:id="rId1"/>
-    <hyperlink ref="M10" r:id="rId2"/>
+    <hyperlink ref="P10" r:id="rId1"/>
+    <hyperlink ref="Q10" r:id="rId2"/>
     <hyperlink ref="O10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <ignoredErrors>
-    <ignoredError sqref="R54:R56" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3277,100 +3378,100 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="192">
   <si>
     <t>UserId</t>
   </si>
@@ -780,10 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spExist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +793,22 @@
   </si>
   <si>
     <t>vue-q-input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦的電腦名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL | 1:是 | 0:否 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,7 +1305,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1303,9 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1389,16 +1401,16 @@
         <v>179</v>
       </c>
       <c r="S1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" s="29" t="s">
         <v>186</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -3072,7 +3084,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>31</v>
@@ -3114,6 +3126,9 @@
       </c>
       <c r="E55" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>31</v>
@@ -3219,10 +3234,13 @@
         <v>104</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>33</v>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -1315,9 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/tableSourceDef.xlsx
+++ b/tableSourceDef.xlsx
@@ -1315,9 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
